--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_st03.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_st03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="369">
   <si>
     <t>zh_CN</t>
   </si>
@@ -1104,7 +1104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dusk"]You still haven't told me. What kind of person is this Doctor, and that Kal’tsit? What does you staying here have to do with the two of them?
+    <t xml:space="preserve">[name="Dusk"]You still haven't told me. What kind of person is this Doctor, and that Kal'tsit? What does you staying here have to do with the two of them?
 </t>
   </si>
   <si>
@@ -1232,7 +1232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="시"]누가 알겠나.
+    <t xml:space="preserve">[name="시"]글쎄.
 </t>
   </si>
   <si>
@@ -1328,7 +1328,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="시"]네?
+    <t xml:space="preserve">[name="시"]응?
 </t>
   </si>
   <si>
@@ -1368,7 +1368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="시"]어.
+    <t xml:space="preserve">[name="시"]응.
 </t>
   </si>
   <si>
@@ -1437,6 +1437,10 @@
   </si>
   <si>
     <t xml:space="preserve">[name="니엔"]어 뭐야…… 왜……? 그 녀석, 혹시 나한테만 그러는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="시"]……로도스 아일랜드.
 </t>
   </si>
   <si>
@@ -3060,7 +3064,7 @@
         <v>253</v>
       </c>
       <c r="D87" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3074,7 +3078,7 @@
         <v>266</v>
       </c>
       <c r="D88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3088,7 +3092,7 @@
         <v>267</v>
       </c>
       <c r="D89" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3102,7 +3106,7 @@
         <v>268</v>
       </c>
       <c r="D90" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3116,7 +3120,7 @@
         <v>269</v>
       </c>
       <c r="D91" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3130,7 +3134,7 @@
         <v>270</v>
       </c>
       <c r="D92" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3144,7 +3148,7 @@
         <v>271</v>
       </c>
       <c r="D93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3158,7 +3162,7 @@
         <v>272</v>
       </c>
       <c r="D94" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3172,7 +3176,7 @@
         <v>273</v>
       </c>
       <c r="D95" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3186,7 +3190,7 @@
         <v>274</v>
       </c>
       <c r="D96" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3200,7 +3204,7 @@
         <v>275</v>
       </c>
       <c r="D97" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3214,7 +3218,7 @@
         <v>276</v>
       </c>
       <c r="D98" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
